--- a/sessions/data/Part_I/Congressional_Bills/pdf_docs/bills.xlsx
+++ b/sessions/data/Part_I/Congressional_Bills/pdf_docs/bills.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Fórmula legal</t>
+          <t>Formula legal</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -453,121 +453,309 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Objeto y finalidad de la ley 
-La presente ley tiene por objeto modificar el Decreto Legislativo N.° 1372, Decreto 
-Legislativo que regula la obligación de las personas jurídicas y/o entes jurídicos de 
-informar la identificación de los beneficiarios finales, con el propósito de establecer un 
-nuevo criterio para la determinación del beneficiario final de las personas jurídicas, a fin 
-de fortalecer la lucha contra el lavado de activos.</t>
+          <t>El objeto del proyecto de ley es establecer un marco normativo que facilite y agilice la 
+asignación de uso definitivo o temporal de bienes y vehículos decomisados, incautados 
+o declarados en extinción de dominio, en favor del servicio de seguridad ciudadana de 
+las Municipalidades Distritales y Provinciales.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>: 
-LEY QUE MODIFICA EL DECRETO LEGISLATIVO N.° 1372, DECRETO 
-LEGISLATIVO QUE REGULA LA OBLIGACIÓN DE LAS PERSONAS 
-JURÍDICAS Y/0 ENTES JURÍDICOS DE INFORMAR LA IDENTIFICACIÓN DE 
-LOS BENEFICARIOS FINALES 
-I. FÓRMULA LEGAL</t>
+          <t>IMPULSA LA 
+ASIGNACION DE USO TEMPORAL O DEFINITIVO 
+DE BIENES Y VEHICULOS DECOMISADOS, 
+INCAUTADOS O BAJO EXTINCIÓN DE DOMINIO A 
+FAVOR DEL SERVICIO DE SEGURIDAD 
+CIUDADANA 
+A iniciativa del Congresista de la República SEGUNDO QUIROZ BARBOZA, Miembro 
+de la bancada BLOQUE MAGISTERIAL DE CONCERTACIÓN NACIONAL, y en 
+ejercicio del derecho de reforma constitucional que le confiere el Artículo 107° de la 
+Constitución Política del Perú; y de conformidad con lo dispuesto en los Artículos 67°, 
+74°, 75° y 76° del Reglamento del Congreso de la República del Perú, presenta el 
+siguiente Proyecto de reforma constitucional: 
+"LEY QUE IMPULSA LA ASIGNACION DE USO TEMPORAL O DEFINITIVO DE 
+BIENES Y VEHICULOS DECOMISADOS, INCAUTADOS O BAJO EXTINCIÓN DE 
+DOMINIO A FAVOR DEL SERVICIO DE SEGURIDAD CIUDADANA"</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PL0668720231215</t>
+          <t>PL06712202320</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Objeto de la Ley 
-La presente ley tiene por objeto, modificar los artículos 8, 9,10 y 11, de la Ley 31173, Ley 
-que garantiza el cumplimiento de la ley 29625, ley de devolución de dinero del Fonavi a los 
-trabajadores que contribuyeron al mismo, priorizando a la población vulnerable, como 
-consecuencia de la pandemia de la COVID-19; a fin de establecer los parámetros para el 
-saneamiento de la propiedad de los posesionarios de vivienda construidas con recursos del 
-FONAVI.</t>
+          <t>La presente iniciativa legislativa tiene como objeto declarar de necesidad pública y de 
+preferente interés nacional, la ejecución del proyecto de inversión de mejoramiento y 
+ampliación del servicio de agua del sistema de riego del Centro Poblado La Colmena, 
+Distrito de Llama, Provincia de Chota, Departamento de Cajamarca, que permita reducir 
+la brecha en saneamiento básico, mejorando la calidad de vida de la población, con 
+acceso al agua de calidad, durante las 24 horas del día.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>El Congreso de la República 
-Ha dado la Ley siguiente: 
-LEY QUE ESTABLECE PARÁMETROS PARA EL SANEAMIENTO DE LA 
-PROPIEDAD DE LOS POSESIONARIOS DE VIVIENDA CONSTRUIDAS CON 
-RECURSOS DEL FONAVI</t>
+          <t>DECLARA DE 
+NECESIDAD PÚBLICA E INTERES 
+NACIONAL LA EJECUCIÓN DEL 
+PROYECTO DE INVERSION 
+"MEJORAMIENTO Y AMPLIACIÓN DEL 
+SERVICIO DE AGUA DEL SISTEMA DE 
+RIEGO DEL CENTRO POBLADO LA 
+COLMENA, DISTRITO DE LLAMA, 
+PROVINCIA DE CHOTA, DEPARTAMENTO 
+DE CAJAMARCA" 
+El congresista que suscribe, SEGUNDO TEODOMIRO QUIROZ BARBOZA miembro 
+de la bancada BLOQUE MAGISTERIAL DE CONCERTACIÓN NACIONAL al amparo 
+de los artículos 102° y 107° de la Constitución Política del Estado, concordante con los 
+artículos 75° y 76°, 2 del Reglamento del Congreso de la República, presenta la 
+siguiente: 
+"LEY QUE DECLARA DE NECESIDAD PÚBLICA E INTERES NACIONAL LA 
+EJECUCIÓN DEL PROYECTO DE INVERSION "MEJORAMIENTO Y AMPLIACIÓN 
+DEL SERVICIO DE AGUA DEL SISTEMA DE RIEGO DEL CENTRO POBLADO LA 
+COLMENA, DISTRITO DE LLAMA, PROVINCIA DE CHOTA, DEPARTAMENTO DE 
+CAJAMARCA".</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PL0668820231218</t>
+          <t>PL06713202320</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>- Objeto 
-La presente ley tiene por objeto promover, proteger y fortalecer el desarrollo de la familia 
-como fundamento de la sociedad y espacio fundamental para el desarrollo integral del 
-ser humano, basándose en el respeto de los derechos fundamentales y las relaciones 
-de respeto entre sus miembros, luchando contra la violencia y velando especialmente 
-por la familia que se encuentra en situación de pobreza y pobreza extrema o riesgo 
-social.</t>
+          <t>El objeto de la presente Ley es incorporar el artículo 409-C° que tipificará el delito de 
+"Revelación y difusión de información clasificada por ley como reservada, secreta o 
+confidencial en una investigación y proceso penal" y modificar el artículo 409° del Código 
+Penal que regula el delito de "Falsedad en juicio". 
+Conexamente se modificarán los artículos 324' y 472° del nuevo Código Procesal Penal 
+(NCPP), como también se incorporará el numeral 3) del artículo 15-A° de la Ley de 
+Transparencia y Acceso a la Información Pública para abordar los tipos penales de 
+forma congruente al ordenamiento jurídico.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Start pattern not found.</t>
+          <t>MODIFICA EL 
+CÓDIGO PENAL PARA GARANTIZAR EL 
+PRINCIPIO DE PRESUNCION DE INOCENCIA 
+EN EL PROCESO PENAL Y LA EFICIENTE 
+ADMINISTRACIÓN DE JUSTICIA 
+A iniciativa del Congresista de la República SEGUNDO TEODOMIRO QUIROZ 
+BARBOZA miembro de la bancada BLOQUE MAGISTERIAL DE CONCERTACIÓN 
+NACIONAL, y en ejercicio del derecho de reforma constitucional que le confiere el 
+Artículo 107° de la Constitución Política del Perú; y de conformidad con lo dispuesto en 
+los Artículos 67°, 74°, 75° y 76° del Reglamento del Congreso de la República del Perú, 
+presenta el siguiente Proyecto de reforma constitucional: 
+"LEY QUE MODIFICA EL CÓDIGO PENAL PARA GARANTIZAR EL PRINCIPIO DE 
+PRESUNCION DE INOCENCIA EN EL PROCESO PENAL Y LA EFICIENTE 
+ADMINISTRACIÓN DE JUSTICIA"</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PL0668920231218</t>
+          <t>PL06714202320</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Creación de la Universidad Nacional Autónoma del Vilcanota 
-Se crea e implementa la Universidad Nacional Autónoma del Vilcanota, con 
-personería jurídica de derecho público interno, con sede en la ciudad de Sicuani, 
-provincia de Canchis, departamento de Cusco.</t>
+          <t>Es objeto de la presente ley declarar el 21 de junio de 1825 como fecha de creación 
+política del distrito de Pisac, Provincia de Calca, Departamento del Cusco.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>El Congreso de la República 
-Ha dado la siguiente ley: 
-LEY QUE CREA LA UNIVERSIDAD NACIONAL AUTÓNOMA DEL VILCANOTA</t>
+          <t>DECLARA EL 
+21 DE JUNIO DEL AÑO 1825 COMO 
+FECHA DE CREACIÓN POLÍTICA DEL 
+DISTRITO DE PISAC, PROVINCIA DE 
+CALCA Y DEPARTAMENTO DE CUSCO 
+Los Congresistas de la Republica integrantes del Grupo Parlamentario de ACCIÓN 
+POPULAR que suscriben; a iniciativa del señor Congresista LUIS ANGEL ARAGÓN 
+CARREÑO, ejercen su derecho de iniciativa legislativa conferido en los artículos 102° 
+inciso 1) y 107° de la Constitución Política del Perú; y conforme a los artículos 2° y 
+del 76° numeral 2 del Reglamento del Congreso de la República, presentan el 
+siguiente: 
+FORMULA LEGAL 
+LEY QUE DECLARA EL 21 DE JUNIO DEL AÑO 1825 COMO FECHA DE CREACIÓN 
+POLÍTICA DEL DISTRITO DE PISAC, PROVINCIA DE CALCA Y DEPARTAMENTO DE 
+CUSCO</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PL0669020231218</t>
+          <t>PL06715202320</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>— Finalidad y objeto de la Ley 
-La presente ley tiene por objeto regular el proceso de expulsión de extranjeros que 
-sean detenidos en flagrancia delictiva por delitos con pena privativa de la libertad 
-no mayor de 4 años, en territorio peruano, garantizando el respeto a los derechos 
-humanos.</t>
+          <t>La presente ley tiene por objeto modificar el artículo 3 de la Ley 29701, Ley que 
+dispone beneficios a favor de los integrantes de las juntas vecinales y establece el 
+Día de las Juntas Vecinales de Seguridad Ciudadana, con el fin de promover el ingreso 
+de sus miembros en las Fuerzas Armadas y Policía Nacional del Perú. 
+1 
+PERÚ 
+o • • 14451. * • 
+11 • 4&gt; j • 
+CONGRESOcc 
+REPÚBLICA</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LEY DE EXPULSIÓN DE EXTRANJEROS DETENIDOS EN FLAGRANCIA 
-DELICTIVA</t>
+          <t>MODIFICA ARTÍCULO 3 DE 
+LA LEY 29701, LEY QUE DISPONE 
+BENEFICIOS A FAVOR DE LOS 
+INTEGRANTES DE LAS JUNTAS 
+VECINALES Y ESTABLECE EL DÍA DE 
+LAS JUNTAS VECINALES DE 
+SEGURIDAD CIUDADANA, CON EL FIN 
+DE PROMOVER EL INGRESO DE SUS 
+MIEMBROS EN LAS FUERZAS 
+ARMADAS Y POLICÍA NACIONAL DEL 
+PERÚ 
+Los Congresistas de la Republica integrantes del Grupo Parlamentario de ACCIÓN 
+POPULAR que suscriben; a iniciativa del señor Congresista LUIS ANGEL ARAGÓN 
+CARREÑO, ejercen su derecho de iniciativa legislativa conferido en los artículos 102' 
+inciso 1) y 107° de la Constitución Política del Perú; y conforme a los artículos 2° y 
+del 76° numeral 2 del Reglamento del Congreso de la República, presentan el 
+siguiente: 
+FORMULA LEGAL 
+LEY QUE MODIFICA ARTÍCULO 3 DE LA LEY 29701, LEY QUE DISPONE BENEFICIOS 
+A FAVOR DE LOS INTEGRANTES DE LAS JUNTAS VECINALES Y ESTABLECE EL DÍA 
+DE LAS JUNTAS VECINALES DE SEGURIDAD CIUDADANA, CON EL FIN DE 
+PROMOVER EL INGRESO DE SUS MIEMBROS EN LAS FUERZAS ARMADAS Y POLICÍA 
+NACIONAL DEL PERÚ</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PL0669120231218</t>
+          <t>PL06716202320</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>La presente ley tiene por objeto modificar los artículos 2 y 3 literal a) del Decreto 
+Legislativo N° 1182 modificado por la Ley N° 31284, Decreto Legislativo que regula 
+el uso de los datos derivados de las telecomunicaciones para la identificación, 
+localización y geolocalización de equipos de comunicación, en la lucha contra la 
+delincuencia y el crimen organizado incorporando nuevos tipos penales.</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MODIFICA LOS ARTÍCULOS 2 y 3 
+LITERAL A) DEL DECRETO LEGISLATIVO N° 
+1182 DECRETO LEGISLATIVO QUE REGULA 
+EL USO DE LOS DATOS DERIVADOS DE LAS 
+TELECOMUNICACIONES PARA LA 
+IDENTIFICACIÓN, LOCALIZACIÓN Y 
+GEOLOCALIZACIÓN DE EQUIPOS DE 
+COMUNICACIÓN, EN LA LUCHA CONTRA LA 
+DELINCUENCIA Y EL CRIMEN ORGANIZADO 
+El Congresista de la República, ALFREDO AZURIN LOAYZA, integrante del grupo 
+parlamentario Somos Perú y los congresistas que suscriben, en ejercicio del 
+derecho a la iniciativa legislativa previsto en el artículo 107' de la Constitución 
+Política del Perú, y concordante con los artículos 22° inciso c), 75° y 76° del 
+Reglamento del Congreso de la República, proponen el siguiente proyecto de ley: 
+FORMULA LEGAL 
+El Congreso de la República 
+Ha dado la Ley siguiente: 
+LEY QUE MODIFICA LOS ARTÍCULOS 2y 3 LITERAL A) DEL DECRETO 
+LEGISLATIVO N° 1182 DECRETO LEGISLATIVO QUE REGULA EL USO DE 
+LOS DATOS DERIVADOS DE LAS TELECOMUNICACIONES PARA LA 
+IDENTIFICACIÓN, LOCALIZACIÓN Y GEOLOCALIZACIÓN DE EQUIPOS DE 
+COMUNICACIÓN, EN LA LUCHA CONTRA LA DELINCUENCIA Y EL CRIMEN 
+ORGANIZADO</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>PL06717202320</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>La presente Ley, tiene por objeto, modificar los artículos 131° y 132° del Código 
+Penal, con la finalidad de actualizar la norma penal adecuándola a la realidad actual, 
+teniendo en cuenta que en la actualidad se viene proliferando la difamación en todos 
+los medios de comunicación, redes sociales y sitios web de divulgación masiva y que; 
+como resultado de esta se vea perjudicado los derechos fundamentales al honor, 
+la buena reputación y la intimidad de la persona. 
+La misma que se modifica en concordancia con los derechos fundamentales de 
+la Constitución Política, respecto a la integridad moral, el honor, la buena 
+reputación y la intimidad personal (vida privada y familiar). 
+Asimismo, como medida complementaria se modificará el artículo 1969° del Código 
+Civil, con la finalidad de especificar de manera detallada la indemnización por haber 
+causado perjuicio al honor, reputación e intimidad del individuo y; finalmente 
+modificará los artículos 2° y 3° de la Ley N°26847, que sustituye los artículos de la 
+Ley N° 26775, que estableció el derecho de rectificación de personas afectadas por 
+afirmaciones inexactas en medios de comunicación social. 
+www.congreso.gob.pe Edificio Juan Santos Atahualpa — Av. Abancay esq. Jr. Ancash 
+e-mail: smontalvo@congreso.gob.pe Centra/ teiefóníca: 311 77r: 
+- • 
+CONGRESO 
+REPÚBLICA 1,"111U (,‘ C,p1"jrti, 5 1&gt;ált..1 
+-440 de":.1 
+'A!‘n C„nilgrino ! 4 rsepll!.;1;</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MODIFICA LOS 
+ARTICULOS 131° Y 132° DEL CÓDIGO 
+PENAL, MODIFICA EL ARTICULO 1969° DEL 
+CÓDIGO CIVIL Y LOS ARTÍCULOS 2° y3° DE 
+LA LEY N°26847, FORTALECIENDO LOS 
+DERECHOS FUNDAMENTALES AL HONOR, 
+LA BUENA REPUTACIÓN Y A LA INTIMIDAD 
+PERSONAL. 
+Los congresistas de la República que suscriben, miembros del Grupo Parlamentario 
+Partido Nacional Perú Libre, a iniciativa del Congresista SEGUNDO TORIBIO 
+MONTALVO CUBAS ejerciendo el derecho a iniciativa legislativa que les confiere el 
+artículo 107° de la Constitución Política del Perú; y, en concordancia con los artículos 
+22°, inciso c), 67, 75 y 76 del Reglamento del Congreso de la República, presentan 
+el siguiente Proyecto de Ley: 
+I. FÓRMULA LEGAL 
+PROYECTO DE LEY QUE MODIFICA LOS ARTICULOS 131° Y 132° DEL 
+CÓDIGO PENAL, MODIFICA EL ARTICULO 1969° DEL CÓDIGO CIVIL Y 
+LOS ARTÍCULOS 2° y 3° DE LA LEY N°26847, FORTALECIENDO LOS 
+DERECHOS FUNDAMENTALES AL HONOR, LA BUENA REPUTACIÓN Y 
+A LA INTIMIDAD PERSONAL.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>PL06718202320</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Start pattern not found.</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>End pattern not found.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>PL06719202320</t>
         </is>
       </c>
     </row>

--- a/sessions/data/Part_I/Congressional_Bills/pdf_docs/bills.xlsx
+++ b/sessions/data/Part_I/Congressional_Bills/pdf_docs/bills.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -750,7 +750,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>End pattern not found.</t>
+          <t>ESTABLECE DISPOSICIONES PARA PREVENIR LA CORRUPCIÓN EN 
+LA EJECUCIÓN DE OBRAS PÚBLICAS Y MEJORA LOS PROCESOS DE 
+CONTRATACIÓN PARA LA LIQUIDACIÓN DE OBRAS, MODIFICANDO EL TEXTO 
+ÚNICO ORDENADO DE LA LEY 30225, LEY DE CONTRATACIONES DEL 
+ESTADO</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
